--- a/patient_data/patient_30.xlsx
+++ b/patient_data/patient_30.xlsx
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -714,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1188,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1884,33 +1884,33 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1975,19 +1975,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
